--- a/All Figures/Run_all_all_exclusions/Behavior Tables/run_all_exp_ER_inputData.xlsx
+++ b/All Figures/Run_all_all_exclusions/Behavior Tables/run_all_exp_ER_inputData.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" count="48643" uniqueCount="78">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" count="125082" uniqueCount="78">
   <si>
     <t>TagNumber</t>
   </si>

--- a/All Figures/Run_all_all_exclusions/Behavior Tables/run_all_exp_ER_inputData.xlsx
+++ b/All Figures/Run_all_all_exclusions/Behavior Tables/run_all_exp_ER_inputData.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" count="125082" uniqueCount="78">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" count="13898" uniqueCount="78">
   <si>
     <t>TagNumber</t>
   </si>

--- a/All Figures/Run_all_all_exclusions/Behavior Tables/run_all_exp_ER_inputData.xlsx
+++ b/All Figures/Run_all_all_exclusions/Behavior Tables/run_all_exp_ER_inputData.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" count="55592" uniqueCount="78">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" count="62541" uniqueCount="78">
   <si>
     <t>TagNumber</t>
   </si>
